--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/foundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A325422-58EF-2340-98BC-3E460B636C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB51AC-5DA9-C847-8CF5-E86560ACCE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>Kelembagaan</t>
   </si>
   <si>
-    <t>tune</t>
-  </si>
-  <si>
     <t>blue-grey</t>
   </si>
   <si>
     <t>backend</t>
+  </si>
+  <si>
+    <t>crowdsource</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,9 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -659,16 +661,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -698,7 +700,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/foundation/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/foundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB51AC-5DA9-C847-8CF5-E86560ACCE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57427C9F-DDD6-4942-B8A7-352DE83946A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="65">
   <si>
     <t>module</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>blue-grey</t>
-  </si>
-  <si>
-    <t>backend</t>
   </si>
   <si>
     <t>crowdsource</t>
@@ -606,7 +603,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -661,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
@@ -669,9 +666,7 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/foundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57427C9F-DDD6-4942-B8A7-352DE83946A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4126F81-C904-2E41-8DAC-F53D93D078E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="74">
   <si>
     <t>module</t>
   </si>
@@ -51,9 +51,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>foundation-position</t>
-  </si>
-  <si>
     <t>foundation-communitymap</t>
   </si>
   <si>
@@ -135,15 +132,9 @@
     <t>true</t>
   </si>
   <si>
-    <t>Jabatan</t>
-  </si>
-  <si>
     <t>token</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
     <t>Tipe</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>south_america</t>
   </si>
   <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>Keanggotaan</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>Pegawai</t>
   </si>
   <si>
-    <t>official</t>
-  </si>
-  <si>
     <t>Laporan</t>
   </si>
   <si>
@@ -220,6 +205,48 @@
   </si>
   <si>
     <t>crowdsource</t>
+  </si>
+  <si>
+    <t>Unit Kerja</t>
+  </si>
+  <si>
+    <t>foundation-workunit</t>
+  </si>
+  <si>
+    <t>workunit</t>
+  </si>
+  <si>
+    <t>Peta Jabatan</t>
+  </si>
+  <si>
+    <t>foundation-workunitpos</t>
+  </si>
+  <si>
+    <t>workunit/:workunit/position</t>
+  </si>
+  <si>
+    <t>workunit/:workunit/community</t>
+  </si>
+  <si>
+    <t>workunit/:workunit/official</t>
+  </si>
+  <si>
+    <t>community/:community/position</t>
+  </si>
+  <si>
+    <t>foundation-communitypos</t>
+  </si>
+  <si>
+    <t>Organisasi</t>
+  </si>
+  <si>
+    <t>foundation-organization</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>tenancy</t>
   </si>
 </sst>
 </file>
@@ -602,7 +629,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -617,70 +644,70 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -693,20 +720,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -717,34 +744,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
@@ -752,22 +779,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
@@ -776,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
@@ -784,22 +811,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>0</v>
@@ -808,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
@@ -816,22 +843,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -840,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
@@ -848,22 +875,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>1</v>
@@ -872,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
@@ -880,22 +907,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>0</v>
@@ -903,11 +930,8 @@
       <c r="I6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
@@ -915,31 +939,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
@@ -947,22 +971,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H8" s="5" t="b">
         <v>0</v>
@@ -970,11 +994,8 @@
       <c r="I8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
@@ -982,31 +1003,34 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H9" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1">
@@ -1014,31 +1038,133 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>35</v>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1051,9 +1177,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -1062,7 +1190,7 @@
     <col min="3" max="3" width="62.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1081,95 +1209,128 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
@@ -1213,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1226,9 +1387,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -1264,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1275,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1286,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1297,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1308,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1319,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1330,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1341,9 +1504,42 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1357,9 +1553,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -1402,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1416,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1430,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1444,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1458,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1472,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1486,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1500,12 +1698,54 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/foundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4126F81-C904-2E41-8DAC-F53D93D078E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC29067-BE53-F049-B020-5E2A81D78A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
   <si>
     <t>module</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>tenancy</t>
+  </si>
+  <si>
+    <t>mobile_layout</t>
   </si>
 </sst>
 </file>
@@ -722,8 +725,8 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -884,7 +887,7 @@
         <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -1555,7 +1558,7 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/foundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC29067-BE53-F049-B020-5E2A81D78A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A806810-990B-1648-917C-B8FF5A95C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="72">
   <si>
     <t>module</t>
   </si>
@@ -60,12 +60,6 @@
     <t>foundation-member</t>
   </si>
   <si>
-    <t>foundation-subdistrict</t>
-  </si>
-  <si>
-    <t>foundation-village</t>
-  </si>
-  <si>
     <t>foundation-official</t>
   </si>
   <si>
@@ -150,24 +144,6 @@
     <t>Keanggotaan</t>
   </si>
   <si>
-    <t>community/:community/member</t>
-  </si>
-  <si>
-    <t>Kecamatan</t>
-  </si>
-  <si>
-    <t>subdistrict</t>
-  </si>
-  <si>
-    <t>Desa</t>
-  </si>
-  <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>subdistrict/:subdistrict/village</t>
-  </si>
-  <si>
     <t>Pegawai</t>
   </si>
   <si>
@@ -231,9 +207,6 @@
     <t>workunit/:workunit/official</t>
   </si>
   <si>
-    <t>community/:community/position</t>
-  </si>
-  <si>
     <t>foundation-communitypos</t>
   </si>
   <si>
@@ -250,6 +223,24 @@
   </si>
   <si>
     <t>mobile_layout</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>foundation-workunitcomm</t>
+  </si>
+  <si>
+    <t>view, show, search</t>
+  </si>
+  <si>
+    <t>handshake</t>
+  </si>
+  <si>
+    <t>community/:workunitcomm/position</t>
+  </si>
+  <si>
+    <t>community/:workunitcomm/member</t>
   </si>
 </sst>
 </file>
@@ -647,70 +638,70 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +714,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -747,34 +738,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
@@ -782,22 +773,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>1</v>
@@ -806,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
@@ -814,22 +805,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>0</v>
@@ -838,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
@@ -846,22 +837,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="5" t="b">
         <v>0</v>
@@ -870,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
@@ -878,22 +869,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>1</v>
@@ -902,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
@@ -910,22 +901,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H6" s="5" t="b">
         <v>0</v>
@@ -934,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
@@ -942,22 +933,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
@@ -966,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
@@ -974,22 +965,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H8" s="5" t="b">
         <v>0</v>
@@ -998,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
@@ -1006,22 +997,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5" t="b">
         <v>0</v>
@@ -1033,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1">
@@ -1041,22 +1032,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5" t="b">
         <v>0</v>
@@ -1068,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
@@ -1076,22 +1067,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="b">
         <v>1</v>
@@ -1100,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
@@ -1108,66 +1099,31 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1180,10 +1136,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1201,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1212,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1220,10 +1176,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1234,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1242,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1253,10 +1209,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1264,10 +1220,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1275,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1286,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1300,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1308,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1322,18 +1278,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
@@ -1377,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1390,10 +1335,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1430,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1452,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1463,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1474,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1485,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1496,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1518,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1532,17 +1477,6 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1556,10 +1490,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1603,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1631,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1645,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1659,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1673,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1687,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1715,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1735,20 +1669,6 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/foundation/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A806810-990B-1648-917C-B8FF5A95C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B90EDD-2335-AB46-9D18-AC911D719415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="1" r:id="rId1"/>
@@ -228,19 +228,19 @@
     <t>community</t>
   </si>
   <si>
-    <t>foundation-workunitcomm</t>
-  </si>
-  <si>
     <t>view, show, search</t>
   </si>
   <si>
     <t>handshake</t>
   </si>
   <si>
-    <t>community/:workunitcomm/position</t>
-  </si>
-  <si>
-    <t>community/:workunitcomm/member</t>
+    <t>foundation-workcomm</t>
+  </si>
+  <si>
+    <t>community/:workcomm/position</t>
+  </si>
+  <si>
+    <t>community/:workcomm/member</t>
   </si>
 </sst>
 </file>
@@ -716,8 +716,8 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -971,7 +971,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -1076,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1267,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1492,8 +1492,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
